--- a/Emploi.xlsx
+++ b/Emploi.xlsx
@@ -30,12 +30,18 @@
       <sz val="14"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -80,11 +86,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -450,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -562,6 +569,11 @@
           <t>Semaine du 2021-01-04 00:00:00</t>
         </is>
       </c>
+      <c r="R1" s="2" t="inlineStr">
+        <is>
+          <t>Semaine du 2021-01-11 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -572,6 +584,86 @@
       <c r="B2" s="3" t="inlineStr">
         <is>
           <t>08H-10H</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DAII,TP Systemes d'informations (ERP),Cheikh </t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="inlineStr">
+        <is>
+          <t>DAII,TP Informatique décisionnelle,Mohamed salem</t>
+        </is>
+      </c>
+      <c r="E2" s="4" t="inlineStr">
+        <is>
+          <t>DAII,CM Systemes d'information (ERP),Cheikh</t>
+        </is>
+      </c>
+      <c r="F2" s="4" t="inlineStr">
+        <is>
+          <t>DAII,TD Informatique décisionnelle,Mohamed salem</t>
+        </is>
+      </c>
+      <c r="G2" s="4" t="inlineStr">
+        <is>
+          <t>DAII,TP Systemes d'informations (ERP),Cheikh</t>
+        </is>
+      </c>
+      <c r="H2" s="4" t="inlineStr">
+        <is>
+          <t>DAII,TP Informatique décisionnelle,Mohamed salem</t>
+        </is>
+      </c>
+      <c r="I2" s="4" t="inlineStr">
+        <is>
+          <t>DAII,TP Informatique décisionnelle,Mohamed salem</t>
+        </is>
+      </c>
+      <c r="J2" s="4" t="inlineStr">
+        <is>
+          <t>DAII,CM Systemes d'information (ERP),Cheikh</t>
+        </is>
+      </c>
+      <c r="K2" s="4" t="inlineStr">
+        <is>
+          <t>DAII,CM Systemes d'information (ERP),Cheikh</t>
+        </is>
+      </c>
+      <c r="L2" s="4" t="inlineStr">
+        <is>
+          <t>DAII,TD Systemes d'information (ERP),Cheikh</t>
+        </is>
+      </c>
+      <c r="M2" s="4" t="inlineStr">
+        <is>
+          <t>DAII,TP Informatique décisionnelle,Mohamed salem</t>
+        </is>
+      </c>
+      <c r="N2" s="4" t="inlineStr">
+        <is>
+          <t>DAII,CM Informatique décisionnelle,Mohamed salem</t>
+        </is>
+      </c>
+      <c r="O2" s="4" t="inlineStr">
+        <is>
+          <t>DAII,CM Systemes d'information (ERP),Cheikh</t>
+        </is>
+      </c>
+      <c r="P2" s="4" t="inlineStr">
+        <is>
+          <t>DAII,TD Technologie web,Aboubecrine</t>
+        </is>
+      </c>
+      <c r="Q2" s="4" t="inlineStr">
+        <is>
+          <t>DAII,CM Technologie web,Aboubecrine</t>
+        </is>
+      </c>
+      <c r="R2" s="4" t="inlineStr">
+        <is>
+          <t>DAII,CM Technologie web,Aboubecrine</t>
         </is>
       </c>
     </row>
@@ -582,6 +674,86 @@
           <t>10H-12H</t>
         </is>
       </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DAII,TP Systemes d'informations (ERP),Cheikh </t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>DAII,CM Systémes d'exploitations avancé,sidi</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>DAII,TP systémes d'exploitations,sidi</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
+          <t>DAII,TP systémes d'exploitations,sidi</t>
+        </is>
+      </c>
+      <c r="G3" s="4" t="inlineStr">
+        <is>
+          <t>DAII,TP systémes d'exploitations,sidi</t>
+        </is>
+      </c>
+      <c r="H3" s="4" t="inlineStr">
+        <is>
+          <t>DAII,TP systémes d'exploitations,sidi</t>
+        </is>
+      </c>
+      <c r="I3" s="4" t="inlineStr">
+        <is>
+          <t>DAII,TD Systémes d'exploitations,sidi</t>
+        </is>
+      </c>
+      <c r="J3" s="4" t="inlineStr">
+        <is>
+          <t>DAII,TP systémes d'exploitations,sidi</t>
+        </is>
+      </c>
+      <c r="K3" s="4" t="inlineStr">
+        <is>
+          <t>DAII,CM Systémes d'exploitations avancé,sidi</t>
+        </is>
+      </c>
+      <c r="L3" s="4" t="inlineStr">
+        <is>
+          <t>DAII,TP systémes d'exploitations,sidi</t>
+        </is>
+      </c>
+      <c r="M3" s="4" t="inlineStr">
+        <is>
+          <t>DAII,TP systémes d'exploitations,sidi</t>
+        </is>
+      </c>
+      <c r="N3" s="4" t="inlineStr">
+        <is>
+          <t>DAII,TD Informatique décisionnelle,Mohamed salem</t>
+        </is>
+      </c>
+      <c r="O3" s="4" t="inlineStr">
+        <is>
+          <t>DAII,TP Systemes d'informations (ERP),Cheikh</t>
+        </is>
+      </c>
+      <c r="P3" s="4" t="inlineStr">
+        <is>
+          <t>DAII,CM Systémes d'exploitations avancé,sidi</t>
+        </is>
+      </c>
+      <c r="Q3" s="4" t="inlineStr">
+        <is>
+          <t>DAII,TD Technologie web,Aboubecrine</t>
+        </is>
+      </c>
+      <c r="R3" s="4" t="inlineStr">
+        <is>
+          <t>DAII,CM Technologie web,Aboubecrine</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n"/>
@@ -590,6 +762,86 @@
           <t>12H-14H</t>
         </is>
       </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DAII,TD Informatique décisionnelle,Mohamed salem </t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>DAII,TD Systémes d'exploitations,sidi</t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t>DAII,TD Systémes d'exploitations,sidi</t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="inlineStr">
+        <is>
+          <t>DAII,TP systémes d'exploitations,sidi</t>
+        </is>
+      </c>
+      <c r="G4" s="4" t="inlineStr">
+        <is>
+          <t>DAII,CM Systemes d'information (ERP),Cheikh</t>
+        </is>
+      </c>
+      <c r="H4" s="4" t="inlineStr">
+        <is>
+          <t>DAII,TP Systemes d'informations (ERP),Cheikh</t>
+        </is>
+      </c>
+      <c r="I4" s="4" t="inlineStr">
+        <is>
+          <t>DAII,CM Systémes d'exploitations avancé,sidi</t>
+        </is>
+      </c>
+      <c r="J4" s="4" t="inlineStr">
+        <is>
+          <t>DAII,TD Systemes d'information (ERP),Cheikh</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>DAII,CM Systémes d'exploitations avancé,sidi</t>
+        </is>
+      </c>
+      <c r="L4" s="4" t="inlineStr">
+        <is>
+          <t>DAII,CM Systémes d'exploitations avancé,sidi</t>
+        </is>
+      </c>
+      <c r="M4" s="4" t="inlineStr">
+        <is>
+          <t>DAII,CM Systemes d'information (ERP),Cheikh</t>
+        </is>
+      </c>
+      <c r="N4" s="4" t="inlineStr">
+        <is>
+          <t>DAII,CM Systémes d'exploitations avancé,sidi</t>
+        </is>
+      </c>
+      <c r="O4" s="4" t="inlineStr">
+        <is>
+          <t>DAII,CM Informatique décisionnelle,Mohamed salem</t>
+        </is>
+      </c>
+      <c r="P4" s="4" t="inlineStr">
+        <is>
+          <t>DAII,CM Administration des réseaux,moustapha</t>
+        </is>
+      </c>
+      <c r="Q4" s="4" t="inlineStr">
+        <is>
+          <t>DAII,TD Téléphonie mobile,moustapha</t>
+        </is>
+      </c>
+      <c r="R4" s="4" t="inlineStr">
+        <is>
+          <t>DAII,CM Technologie web,Aboubecrine</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n"/>
@@ -598,6 +850,86 @@
           <t>14H-16H</t>
         </is>
       </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DAII,TP Informatique décisionnelle,Mohamed salem </t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t>DAII,TD Systémes d'exploitations,sidi</t>
+        </is>
+      </c>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t>DAII,CM Informatique décisionnelle,Mohamed salem</t>
+        </is>
+      </c>
+      <c r="F5" s="4" t="inlineStr">
+        <is>
+          <t>DAII,CM Informatique décisionnelle,Mohamed salem</t>
+        </is>
+      </c>
+      <c r="G5" s="4" t="inlineStr">
+        <is>
+          <t>DAII,TP Informatique décisionnelle,Mohamed salem</t>
+        </is>
+      </c>
+      <c r="H5" s="4" t="inlineStr">
+        <is>
+          <t>DAII,CM Systémes d'exploitations avancé,sidi</t>
+        </is>
+      </c>
+      <c r="I5" s="4" t="inlineStr">
+        <is>
+          <t>DAII,TP systémes d'exploitations,sidi</t>
+        </is>
+      </c>
+      <c r="J5" s="4" t="inlineStr">
+        <is>
+          <t>DAII,CM Informatique décisionnelle,Mohamed salem</t>
+        </is>
+      </c>
+      <c r="K5" s="4" t="inlineStr">
+        <is>
+          <t>DAII,TP systémes d'exploitations,sidi</t>
+        </is>
+      </c>
+      <c r="L5" s="4" t="inlineStr">
+        <is>
+          <t>DAII,TD Systemes d'information (ERP),Cheikh</t>
+        </is>
+      </c>
+      <c r="M5" s="4" t="inlineStr">
+        <is>
+          <t>DAII,TP Systemes d'informations (ERP),Cheikh</t>
+        </is>
+      </c>
+      <c r="N5" s="4" t="inlineStr">
+        <is>
+          <t>DAII,CM Informatique décisionnelle,Mohamed salem</t>
+        </is>
+      </c>
+      <c r="O5" s="4" t="inlineStr">
+        <is>
+          <t>DAII,TD Systemes d'information (ERP),Cheikh</t>
+        </is>
+      </c>
+      <c r="P5" s="4" t="inlineStr">
+        <is>
+          <t>DAII,TP Projet JEE avancé,Aboubecrine</t>
+        </is>
+      </c>
+      <c r="Q5" s="4" t="inlineStr">
+        <is>
+          <t>DAII,CM Téléphonie mobile,moustapha</t>
+        </is>
+      </c>
+      <c r="R5" s="4" t="inlineStr">
+        <is>
+          <t>DAII,TP Projet JEE avancé,Aboubecrine</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n"/>
@@ -618,6 +950,86 @@
           <t>08H-10H</t>
         </is>
       </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DAII,TP Projet JEE avancé,Aboubecrine </t>
+        </is>
+      </c>
+      <c r="D7" s="4" t="inlineStr">
+        <is>
+          <t>DAII,CM Administration des réseaux,moustapha</t>
+        </is>
+      </c>
+      <c r="E7" s="4" t="inlineStr">
+        <is>
+          <t>DAII,TD Administrations des réseaux,moustapha</t>
+        </is>
+      </c>
+      <c r="F7" s="4" t="inlineStr">
+        <is>
+          <t>DAII,TP Téléphonie mobile,moustapha</t>
+        </is>
+      </c>
+      <c r="G7" s="4" t="inlineStr">
+        <is>
+          <t>DAII,TP Technologie web,Aboubecrine</t>
+        </is>
+      </c>
+      <c r="H7" s="4" t="inlineStr">
+        <is>
+          <t>DAII,TD Administrations des réseaux,moustapha</t>
+        </is>
+      </c>
+      <c r="I7" s="4" t="inlineStr">
+        <is>
+          <t>DAII,TP Administrations des réseaux,moustapha</t>
+        </is>
+      </c>
+      <c r="J7" s="4" t="inlineStr">
+        <is>
+          <t>DAII,TD Systémes d'exploitations,sidi</t>
+        </is>
+      </c>
+      <c r="K7" s="4" t="inlineStr">
+        <is>
+          <t>DAII,TP Projet JEE avancé,Aboubecrine</t>
+        </is>
+      </c>
+      <c r="L7" s="4" t="inlineStr">
+        <is>
+          <t>DAII,CM Téléphonie mobile,moustapha</t>
+        </is>
+      </c>
+      <c r="M7" s="4" t="inlineStr">
+        <is>
+          <t>DAII,TP Projet JEE avancé,Aboubecrine</t>
+        </is>
+      </c>
+      <c r="N7" s="4" t="inlineStr">
+        <is>
+          <t>DAII,TP Téléphonie mobile,moustapha</t>
+        </is>
+      </c>
+      <c r="O7" s="4" t="inlineStr">
+        <is>
+          <t>DAII,TP Administrations des réseaux,moustapha</t>
+        </is>
+      </c>
+      <c r="P7" s="4" t="inlineStr">
+        <is>
+          <t>DAII,CM Téléphonie mobile,moustapha</t>
+        </is>
+      </c>
+      <c r="Q7" s="4" t="inlineStr">
+        <is>
+          <t>DAII,TP Administrations des réseaux,moustapha</t>
+        </is>
+      </c>
+      <c r="R7" s="4" t="inlineStr">
+        <is>
+          <t>DAII,CM Administration des réseaux,moustapha</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n"/>
@@ -706,6 +1118,86 @@
           <t>08H-10H</t>
         </is>
       </c>
+      <c r="C17" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DAII,CM Administration des réseaux,moustapha </t>
+        </is>
+      </c>
+      <c r="D17" s="4" t="inlineStr">
+        <is>
+          <t>DAII,TD Administrations des réseaux,moustapha</t>
+        </is>
+      </c>
+      <c r="E17" s="4" t="inlineStr">
+        <is>
+          <t>DAII,CM Technologie web,Aboubecrine</t>
+        </is>
+      </c>
+      <c r="F17" s="4" t="inlineStr">
+        <is>
+          <t>DAII,TD Administrations des réseaux,moustapha</t>
+        </is>
+      </c>
+      <c r="G17" s="4" t="inlineStr">
+        <is>
+          <t>DAII,CM Administration des réseaux,moustapha</t>
+        </is>
+      </c>
+      <c r="H17" s="4" t="inlineStr">
+        <is>
+          <t>DAII,CM Téléphonie mobile,moustapha</t>
+        </is>
+      </c>
+      <c r="I17" s="4" t="inlineStr">
+        <is>
+          <t>DAII,TP Administrations des réseaux,moustapha</t>
+        </is>
+      </c>
+      <c r="J17" s="4" t="inlineStr">
+        <is>
+          <t>DAII,TP Téléphonie mobile,moustapha</t>
+        </is>
+      </c>
+      <c r="K17" s="4" t="inlineStr">
+        <is>
+          <t>DAII,TP Administrations des réseaux,moustapha</t>
+        </is>
+      </c>
+      <c r="L17" s="4" t="inlineStr">
+        <is>
+          <t>DAII,TD Technologie web,Aboubecrine</t>
+        </is>
+      </c>
+      <c r="M17" s="4" t="inlineStr">
+        <is>
+          <t>DAII,TD Téléphonie mobile,moustapha</t>
+        </is>
+      </c>
+      <c r="N17" s="4" t="inlineStr">
+        <is>
+          <t>DAII,CM Administration des réseaux,moustapha</t>
+        </is>
+      </c>
+      <c r="O17" s="4" t="inlineStr">
+        <is>
+          <t>DAII,TP Projet JEE avancé,Aboubecrine</t>
+        </is>
+      </c>
+      <c r="P17" s="4" t="inlineStr">
+        <is>
+          <t>DAII,CM Administration des réseaux,moustapha</t>
+        </is>
+      </c>
+      <c r="Q17" s="4" t="inlineStr">
+        <is>
+          <t>DAII,CM Administration des réseaux,moustapha</t>
+        </is>
+      </c>
+      <c r="R17" s="4" t="inlineStr">
+        <is>
+          <t>DAII,TP Administrations des réseaux,moustapha</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n"/>
@@ -714,6 +1206,86 @@
           <t>10H-12H</t>
         </is>
       </c>
+      <c r="C18" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DAII,CM Téléphonie mobile,moustapha </t>
+        </is>
+      </c>
+      <c r="D18" s="4" t="inlineStr">
+        <is>
+          <t>DAII,TD Systémes d'exploitations,sidi</t>
+        </is>
+      </c>
+      <c r="E18" s="4" t="inlineStr">
+        <is>
+          <t>DAII,CM Administration des réseaux,moustapha</t>
+        </is>
+      </c>
+      <c r="F18" s="4" t="inlineStr">
+        <is>
+          <t>DAII,TP Téléphonie mobile,moustapha</t>
+        </is>
+      </c>
+      <c r="G18" s="4" t="inlineStr">
+        <is>
+          <t>DAII,TP Téléphonie mobile,moustapha</t>
+        </is>
+      </c>
+      <c r="H18" s="4" t="inlineStr">
+        <is>
+          <t>DAII,TP Technologie web,Aboubecrine</t>
+        </is>
+      </c>
+      <c r="I18" s="4" t="inlineStr">
+        <is>
+          <t>DAII,TP Projet JEE avancé,Aboubecrine</t>
+        </is>
+      </c>
+      <c r="J18" s="4" t="inlineStr">
+        <is>
+          <t>DAII,TP Projet JEE avancé,Aboubecrine</t>
+        </is>
+      </c>
+      <c r="K18" s="4" t="inlineStr">
+        <is>
+          <t>DAII,TP Projet JEE avancé,Aboubecrine</t>
+        </is>
+      </c>
+      <c r="L18" s="4" t="inlineStr">
+        <is>
+          <t>DAII,TP Technologie web,Aboubecrine</t>
+        </is>
+      </c>
+      <c r="M18" s="4" t="inlineStr">
+        <is>
+          <t>DAII,TD Téléphonie mobile,moustapha</t>
+        </is>
+      </c>
+      <c r="N18" s="4" t="inlineStr">
+        <is>
+          <t>DAII,TP Projet JEE avancé,Aboubecrine</t>
+        </is>
+      </c>
+      <c r="O18" s="4" t="inlineStr">
+        <is>
+          <t>DAII,TP Projet JEE avancé,Aboubecrine</t>
+        </is>
+      </c>
+      <c r="P18" s="4" t="inlineStr">
+        <is>
+          <t>DAII,TD Téléphonie mobile,moustapha</t>
+        </is>
+      </c>
+      <c r="Q18" s="4" t="inlineStr">
+        <is>
+          <t>DAII,TD Téléphonie mobile,moustapha</t>
+        </is>
+      </c>
+      <c r="R18" s="4" t="inlineStr">
+        <is>
+          <t>DAII,TP Administrations des réseaux,moustapha</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n"/>
@@ -722,12 +1294,172 @@
           <t>12H-14H</t>
         </is>
       </c>
+      <c r="C19" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DAII,TP Projet JEE avancé,Aboubecrine </t>
+        </is>
+      </c>
+      <c r="D19" s="4" t="inlineStr">
+        <is>
+          <t>DAII,CM Téléphonie mobile,moustapha</t>
+        </is>
+      </c>
+      <c r="E19" s="4" t="inlineStr">
+        <is>
+          <t>DAII,TD Administrations des réseaux,moustapha</t>
+        </is>
+      </c>
+      <c r="F19" s="4" t="inlineStr">
+        <is>
+          <t>DAII,TP Technologie web,Aboubecrine</t>
+        </is>
+      </c>
+      <c r="G19" s="4" t="inlineStr">
+        <is>
+          <t>DAII,TP Téléphonie mobile,moustapha</t>
+        </is>
+      </c>
+      <c r="H19" s="4" t="inlineStr">
+        <is>
+          <t>DAII,TD Administrations des réseaux,moustapha</t>
+        </is>
+      </c>
+      <c r="I19" s="4" t="inlineStr">
+        <is>
+          <t>DAII,CM Téléphonie mobile,moustapha</t>
+        </is>
+      </c>
+      <c r="J19" s="4" t="inlineStr">
+        <is>
+          <t>DAII,TP Administrations des réseaux,moustapha</t>
+        </is>
+      </c>
+      <c r="K19" s="4" t="inlineStr">
+        <is>
+          <t>DAII,TP Administrations des réseaux,moustapha</t>
+        </is>
+      </c>
+      <c r="L19" s="4" t="inlineStr">
+        <is>
+          <t>DAII,TP Technologie web,Aboubecrine</t>
+        </is>
+      </c>
+      <c r="M19" s="4" t="inlineStr">
+        <is>
+          <t>DAII,TP Téléphonie mobile,moustapha</t>
+        </is>
+      </c>
+      <c r="N19" s="4" t="inlineStr">
+        <is>
+          <t>DAII,TD Téléphonie mobile,moustapha</t>
+        </is>
+      </c>
+      <c r="O19" s="4" t="inlineStr">
+        <is>
+          <t>DAII,TP Administrations des réseaux,moustapha</t>
+        </is>
+      </c>
+      <c r="P19" s="4" t="inlineStr">
+        <is>
+          <t>DAII,TP Projet JEE avancé,Aboubecrine</t>
+        </is>
+      </c>
+      <c r="Q19" s="4" t="inlineStr">
+        <is>
+          <t>DAII,TP Projet JEE avancé,Aboubecrine</t>
+        </is>
+      </c>
+      <c r="R19" s="4" t="inlineStr">
+        <is>
+          <t>DAII,TP Projet JEE avancé,Aboubecrine</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
           <t>14H-16H</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DAII,CM Administration des réseaux,moustapha </t>
+        </is>
+      </c>
+      <c r="D20" s="4" t="inlineStr">
+        <is>
+          <t>DAII,TD Administrations des réseaux,moustapha</t>
+        </is>
+      </c>
+      <c r="E20" s="4" t="inlineStr">
+        <is>
+          <t>DAII,CM Téléphonie mobile,moustapha</t>
+        </is>
+      </c>
+      <c r="F20" s="4" t="inlineStr">
+        <is>
+          <t>DAII,TD Informatique décisionnelle,Mohamed salem</t>
+        </is>
+      </c>
+      <c r="G20" s="4" t="inlineStr">
+        <is>
+          <t>DAII,TD Administrations des réseaux,moustapha</t>
+        </is>
+      </c>
+      <c r="H20" s="4" t="inlineStr">
+        <is>
+          <t>DAII,TD Technologie web,Aboubecrine</t>
+        </is>
+      </c>
+      <c r="I20" s="4" t="inlineStr">
+        <is>
+          <t>DAII,TD Administrations des réseaux,moustapha</t>
+        </is>
+      </c>
+      <c r="J20" s="4" t="inlineStr">
+        <is>
+          <t>DAII,TP Administrations des réseaux,moustapha</t>
+        </is>
+      </c>
+      <c r="K20" s="4" t="inlineStr">
+        <is>
+          <t>DAII,TD Téléphonie mobile,moustapha</t>
+        </is>
+      </c>
+      <c r="L20" s="4" t="inlineStr">
+        <is>
+          <t>DAII,CM Technologie web,Aboubecrine</t>
+        </is>
+      </c>
+      <c r="M20" s="4" t="inlineStr">
+        <is>
+          <t>DAII,TP Administrations des réseaux,moustapha</t>
+        </is>
+      </c>
+      <c r="N20" s="4" t="inlineStr">
+        <is>
+          <t>DAII,TP Technologie web,Aboubecrine</t>
+        </is>
+      </c>
+      <c r="O20" s="4" t="inlineStr">
+        <is>
+          <t>DAII,TD Administrations des réseaux,moustapha</t>
+        </is>
+      </c>
+      <c r="P20" s="4" t="inlineStr">
+        <is>
+          <t>DAII,TP Projet JEE avancé,Aboubecrine</t>
+        </is>
+      </c>
+      <c r="Q20" s="4" t="inlineStr">
+        <is>
+          <t>DAII,TD Téléphonie mobile,moustapha</t>
+        </is>
+      </c>
+      <c r="R20" s="4" t="inlineStr">
+        <is>
+          <t>DAII,TP Téléphonie mobile,moustapha</t>
         </is>
       </c>
     </row>
